--- a/data/variance/PowerBlade_Variance.xlsx
+++ b/data/variance/PowerBlade_Variance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>DeviceMAC</t>
   </si>
@@ -28,15 +28,6 @@
   </si>
   <si>
     <t>Load</t>
-  </si>
-  <si>
-    <t>Avg - Normal</t>
-  </si>
-  <si>
-    <t>Avg - Into Jumper</t>
-  </si>
-  <si>
-    <t>Avg - Jumper into PB</t>
   </si>
   <si>
     <t>Avg - Both</t>
@@ -206,6 +197,12 @@
   <si>
     <t>CI</t>
   </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Surge Strip</t>
+  </si>
 </sst>
 </file>
 
@@ -217,6 +214,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,6 +353,3366 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0271966527196652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0664400833241969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0311299509868857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.768181818181818</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.261454372623574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0428194993412382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.106865671641791</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0982089552238805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.158120805369127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.126756723566253</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.678151260504202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00237623762376229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0436241610738255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.111030478955007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.634156378600823</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.278</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.154078549848942</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.0956197112991538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Into Jumper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$3:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0523012552301254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.286920293827431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148496489601272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.26590909090909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.148479087452471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.126657883179622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000696517412935467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.0273963515754559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.00107382550335571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0466290065086579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0765756302521009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.208316831683168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.131409395973154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.107692307692308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.297530864197531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0220543806646527</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.0248382279741164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jumper into PB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.0883675035632058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.0230494105179494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.271720532319392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0179767827529022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.164577114427861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.176442953020134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61890756302521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.152673267326733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.168053691275168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0492017416545716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.812345679012346</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.059441087613293</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0721254355400696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AT$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Surge Strip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$3:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.156796577946768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0530961791831355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.0617910447761194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.117976782752902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.066241610738255</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.0354906054279749</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.404936974789916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.115445544554455</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.117986577181208</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0195936139332365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.361728395061728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.0947885196374621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.122399203583873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2127846856"/>
+        <c:axId val="2124817048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2127846856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124817048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124817048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127846856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Box fan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$21:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.0956197112991538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.570281489202501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-0.0248382279741164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.434267163843379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.15599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.119984000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.795999999999992</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0721254355400696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.303616071755817</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.595944000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.835999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.122399203583873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$20:$AW$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.154078549848942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.705608811475965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.463184000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0220543806646527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.596540403058232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.716024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.573999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.059441087613293</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.741697608278291</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.624039999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.0947885196374621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$19:$AW$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.848361530034756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.982304000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.868732451955507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.764663999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.976</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.766475735776058</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.656024</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computer/Dell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>2.634156378600823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.281119780072164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.886823999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.446000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.297530864197531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2040063702404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.528</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.702936000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.668</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>2.812345679012346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.734887705378645</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.834895999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.758</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.361728395061728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Floor lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$17:$AW$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.111030478955007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.524919192153181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.717663999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.483999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.107692307692308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.742546524211732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.325536000000065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0492017416545716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.336671296919476</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7864</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0195936139332365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2129081624"/>
+        <c:axId val="2126009992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2129081624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126009992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126009992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129081624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lamps (effectively surge strip)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$AW$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0271966527196652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.828951237314816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0523012552301254</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.943066565077515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$AW$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Microwave</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$AW$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.0664400833241969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.17314138246759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1291.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1149.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1219.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1494.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1351.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1300.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13935.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-523.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-0.286920293827431</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.4718431183557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1633.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1655.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1684.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1684.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1659.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1663.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>372.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-161.2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.0883675035632058</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.91484120425901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vacuum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$AW$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0311299509868857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.414611132808852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1728.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1733.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1734.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1739.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1736.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1734.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224.2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.148496489601272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.184564536421342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1469.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1473.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1477.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1476.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1480.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1475.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-34.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.0230494105179494</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.279647038622227</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Apple TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$AW$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>1.768181818181818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.722641671405834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.401904000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.114</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>1.26590909090909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.555679343843597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.309223999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.024</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.487415892717978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$AW$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.261454372623574</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.754000972453213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.602696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.148479087452471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.680475108346671</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.601784</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.43400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.271720532319392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.679960065732186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.54</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.678</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.920255999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.156796577946768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monitor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$AW$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0428194993412382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.582369913681539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.30800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.988136000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.126657883179622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87130749488862</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.57</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.325735999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.417999999999992</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0530961791831355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small Aerogarden</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$AW$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.106865671641791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.917055398560357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.34200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.025136000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0420000000000087</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.000696517412935467</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.758544522705836</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.216</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.392623999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.0179767827529022</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.03437978989444</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.76</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.574</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.205503999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.726</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.0617910447761194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Small Aerogarden</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$AW$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.0982089552238805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3481637565554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.244895999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.651999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-0.0273963515754559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.313291707180163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.376</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.578383999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.924</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.164577114427861</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.666609078628298</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.586024000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.113999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.117976782752902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xbox One</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$AW$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.158120805369127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.418424730437747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.882943999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.064</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-0.00107382550335571</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.488268165242218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.011984000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.516</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.176442953020134</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.243298329758023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.55</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.548</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.620655999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.948</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.066241610738255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TV 60"</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$13:$AW$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.126756723566253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.337318673278361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.142904000000023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.594000000000022</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0466290065086579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.283111645391842</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>157.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>157.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>157.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>155.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>157.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.168000000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5.780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.0354906054279749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cable box</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$AW$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.678151260504202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.482193136779868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.288056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.458000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0765756302521009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.470437086559694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.824</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.430344000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.784</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.61890756302521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.575004131243037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.49</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.74999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.404936974789916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Floor lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$AW$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.00237623762376229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.583097685185812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.332503999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.104000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.208316831683168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.011806230897023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.642</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.488296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.542</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.152673267326733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.612497996128911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.266</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.540184000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.166</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.115445544554455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Floor lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$AW$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0436241610738255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.866277474912189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.445536000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.957999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.131409395973154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.585065500117172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.92</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.325144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.504</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.168053691275168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.499805419497582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.658</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.080775999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.758000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.117986577181208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Floor lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$AW$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.111030478955007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.524919192153181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.717663999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.483999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.107692307692308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.742546524211732</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.325536000000065</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.677999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0492017416545716</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.336671296919476</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7864</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.0195936139332365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computer/Dell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$AW$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>2.634156378600823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.281119780072164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.886823999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.446000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.297530864197531</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2040063702404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.528</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.702936000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.668</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>2.812345679012346</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.734887705378645</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.834895999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.758</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.361728395061728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clock</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$AW$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.848361530034756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.982304000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>3.766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.868732451955507</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.764663999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.976</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.976</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.766475735776058</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.986</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.656024</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.986</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>0.986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lamp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$AW$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.154078549848942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.705608811475965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.463184000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.584000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>0.0220543806646527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.596540403058232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.906</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.716024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.573999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>-0.059441087613293</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.741697608278291</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23.97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.624039999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.0947885196374621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Box fan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>-0.0956197112991538</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.570281489202501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.364</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.995999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00%">
+                  <c:v>-0.0248382279741164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.434267163843379</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.07</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.15599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.119984000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.795999999999992</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00%">
+                  <c:v>0.0721254355400696</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.303616071755817</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.86</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.66</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>69.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.595944000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.835999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00%">
+                  <c:v>-0.122399203583873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2030859448"/>
+        <c:axId val="2030861720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2030859448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2030861720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2030861720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2030859448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>241306</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,7 +4043,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,23 +4052,23 @@
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="8" width="7.1640625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="15" width="7.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="8.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="8.33203125" style="8" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" style="10" customWidth="1"/>
-    <col min="21" max="25" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="25" width="7.1640625" customWidth="1"/>
     <col min="26" max="28" width="8.33203125" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.33203125" style="8" customWidth="1"/>
     <col min="30" max="30" width="8.33203125" style="10" customWidth="1"/>
-    <col min="31" max="35" width="7.1640625" hidden="1" customWidth="1"/>
+    <col min="31" max="35" width="7.1640625" customWidth="1"/>
     <col min="36" max="38" width="8.33203125" style="1" customWidth="1"/>
     <col min="39" max="39" width="8.33203125" style="8" customWidth="1"/>
     <col min="40" max="40" width="8.33203125" style="10" customWidth="1"/>
-    <col min="41" max="45" width="7.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="41" max="45" width="7.1640625" style="3" customWidth="1"/>
     <col min="46" max="48" width="8.33203125" style="1" customWidth="1"/>
     <col min="49" max="49" width="8.33203125" style="8" customWidth="1"/>
-    <col min="50" max="50" width="8.33203125" style="10" customWidth="1"/>
+    <col min="50" max="50" width="8.33203125" style="10" hidden="1" customWidth="1"/>
     <col min="51" max="53" width="7.1640625" hidden="1" customWidth="1"/>
     <col min="54" max="55" width="5.1640625" hidden="1" customWidth="1"/>
     <col min="56" max="58" width="8.33203125" style="1" hidden="1" customWidth="1"/>
@@ -883,142 +4241,142 @@
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="U2" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V2" s="12"/>
       <c r="W2" s="12"/>
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AC2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="AE2" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AM2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="AO2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP2" s="11"/>
       <c r="AQ2" s="11"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
       <c r="AT2" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AW2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="AY2" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AZ2" s="12"/>
       <c r="BA2" s="12"/>
       <c r="BB2" s="12"/>
       <c r="BC2" s="12"/>
       <c r="BD2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BH2" s="12"/>
       <c r="BI2" s="12"/>
       <c r="BJ2" s="12"/>
       <c r="BK2" s="12"/>
       <c r="BL2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:65">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(D16:D17)</f>
@@ -1076,7 +4434,7 @@
         <v>0.77999999999999758</v>
       </c>
       <c r="S3" s="8">
-        <f>ABS(R3)/I3</f>
+        <f>R3/I3</f>
         <v>2.7196652719665187E-2</v>
       </c>
       <c r="T3" s="10">
@@ -1111,7 +4469,7 @@
         <v>1.4999999999999964</v>
       </c>
       <c r="AC3" s="8">
-        <f>ABS(AB3)/I3</f>
+        <f>AB3/I3</f>
         <v>5.2301255230125403E-2</v>
       </c>
       <c r="AD3" s="10">
@@ -1131,7 +4489,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM3" s="8" t="e">
-        <f>ABS(AL3)/I3</f>
+        <f>AL3/I3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN3" s="10" t="e">
@@ -1151,7 +4509,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AW3" s="8" t="e">
-        <f>ABS(AV3)/I3</f>
+        <f>AV3/I3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX3" s="10" t="e">
@@ -1187,10 +4545,10 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="e">
         <f t="shared" ref="I4:I31" si="3">AVERAGE(D4:H4)</f>
@@ -1213,31 +4571,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S4" s="8" t="e">
-        <f t="shared" ref="S4:S31" si="8">ABS(R4)/I4</f>
+        <f t="shared" ref="S4:S31" si="8">R4/I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T4" s="10" t="e">
-        <f t="shared" ref="T4:T31" si="9">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(K4:O4),5)</f>
+        <f>_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(K4:O4),5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z4" s="1" t="e">
-        <f t="shared" ref="Z4:Z31" si="10">AVERAGE(U4:Y4)</f>
+        <f t="shared" ref="Z4:Z31" si="9">AVERAGE(U4:Y4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA4" s="1" t="e">
-        <f t="shared" ref="AA4:AA31" si="11">_xlfn.VAR.P(U4:Y4)</f>
+        <f t="shared" ref="AA4:AA31" si="10">_xlfn.VAR.P(U4:Y4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AB4" s="1" t="e">
-        <f t="shared" ref="AB4:AB31" si="12">Z4-I4</f>
+        <f t="shared" ref="AB4:AB31" si="11">Z4-I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC4" s="8" t="e">
-        <f t="shared" ref="AC4:AC31" si="13">ABS(AB4)/I4</f>
+        <f t="shared" ref="AC4:AC31" si="12">AB4/I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AD4" s="10" t="e">
-        <f t="shared" ref="AD4:AD31" si="14">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(U4:Y4),5)</f>
+        <f t="shared" ref="AD4:AD31" si="13">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(U4:Y4),5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ4" s="1" t="e">
@@ -1245,43 +4603,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK4" s="1" t="e">
-        <f t="shared" ref="AK4:AK31" si="15">_xlfn.VAR.P(AE4:AI4)</f>
+        <f t="shared" ref="AK4:AK31" si="14">_xlfn.VAR.P(AE4:AI4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL4" s="1" t="e">
-        <f t="shared" ref="AL4:AL31" si="16">AJ4-I4</f>
+        <f t="shared" ref="AL4:AL31" si="15">AJ4-I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM4" s="8" t="e">
-        <f t="shared" ref="AM4:AM31" si="17">ABS(AL4)/I4</f>
+        <f t="shared" ref="AM4:AM30" si="16">AL4/I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN4" s="10" t="e">
-        <f t="shared" ref="AN4:AN31" si="18">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(AE4:AI4),5)</f>
+        <f t="shared" ref="AN4:AN31" si="17">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(AE4:AI4),5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT4" s="1" t="e">
-        <f t="shared" ref="AT4:AT31" si="19">AVERAGE(AO4:AS4)</f>
+        <f t="shared" ref="AT4:AT31" si="18">AVERAGE(AO4:AS4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU4" s="1" t="e">
-        <f t="shared" ref="AU4:AU31" si="20">_xlfn.VAR.P(AO4:AS4)</f>
+        <f t="shared" ref="AU4:AU31" si="19">_xlfn.VAR.P(AO4:AS4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV4" s="1" t="e">
-        <f t="shared" ref="AV4:AV31" si="21">AT4-I4</f>
+        <f t="shared" ref="AV4:AV31" si="20">AT4-I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW4" s="8" t="e">
-        <f t="shared" ref="AW4:AW31" si="22">ABS(AV4)/I4</f>
+        <f t="shared" ref="AW4:AW31" si="21">AV4/I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX4" s="10" t="e">
-        <f t="shared" ref="AX4:AX31" si="23">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(AO4:AS4),5)</f>
+        <f t="shared" ref="AX4:AX31" si="22">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(AO4:AS4),5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD4" s="1" t="e">
-        <f t="shared" ref="BD4:BD31" si="24">AVERAGE(AY4:BC4)</f>
+        <f t="shared" ref="BD4:BD31" si="23">AVERAGE(AY4:BC4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE4" s="1">
@@ -1297,13 +4655,13 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3">
         <v>1836</v>
@@ -1357,10 +4715,10 @@
       </c>
       <c r="S5" s="8">
         <f t="shared" si="8"/>
-        <v>6.644008332419693E-2</v>
+        <v>-6.644008332419693E-2</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T4:T31" si="24">_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(K5:O5),5)</f>
         <v>25.173141382467595</v>
       </c>
       <c r="U5">
@@ -1379,23 +4737,23 @@
         <v>1351</v>
       </c>
       <c r="Z5" s="1">
+        <f t="shared" si="9"/>
+        <v>1300.8</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="10"/>
-        <v>1300.8</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>13935.360000000004</v>
+      </c>
+      <c r="AB5" s="1">
         <f t="shared" si="11"/>
-        <v>13935.360000000004</v>
-      </c>
-      <c r="AB5" s="1">
+        <v>-523.40000000000009</v>
+      </c>
+      <c r="AC5" s="8">
         <f t="shared" si="12"/>
-        <v>-523.40000000000009</v>
-      </c>
-      <c r="AC5" s="8">
+        <v>-0.28692029382743123</v>
+      </c>
+      <c r="AD5" s="10">
         <f t="shared" si="13"/>
-        <v>0.28692029382743123</v>
-      </c>
-      <c r="AD5" s="10">
-        <f t="shared" si="14"/>
         <v>103.47184311835569</v>
       </c>
       <c r="AE5">
@@ -1418,39 +4776,39 @@
         <v>1663</v>
       </c>
       <c r="AK5" s="1">
+        <f t="shared" si="14"/>
+        <v>372.4</v>
+      </c>
+      <c r="AL5" s="1">
         <f t="shared" si="15"/>
-        <v>372.4</v>
-      </c>
-      <c r="AL5" s="1">
+        <v>-161.20000000000005</v>
+      </c>
+      <c r="AM5" s="8">
         <f t="shared" si="16"/>
-        <v>-161.20000000000005</v>
-      </c>
-      <c r="AM5" s="8">
-        <f t="shared" si="17"/>
-        <v>8.8367503563205815E-2</v>
+        <v>-8.8367503563205815E-2</v>
       </c>
       <c r="AN5" s="10">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,_xlfn.STDEV.P(AE5:AI5),5)</f>
+        <v>16.914841204259005</v>
+      </c>
+      <c r="AT5" s="1" t="e">
         <f t="shared" si="18"/>
-        <v>16.914841204259005</v>
-      </c>
-      <c r="AT5" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU5" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU5" s="1" t="e">
+      <c r="AV5" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV5" s="1" t="e">
+      <c r="AW5" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW5" s="8" t="e">
+      <c r="AX5" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX5" s="10" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY5">
@@ -1469,7 +4827,7 @@
         <v>1582</v>
       </c>
       <c r="BD5" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1350</v>
       </c>
       <c r="BE5" s="1">
@@ -1482,13 +4840,13 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3">
         <v>1517</v>
@@ -1545,7 +4903,7 @@
         <v>3.1129950986885681E-2</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>5.4146111328088518</v>
       </c>
       <c r="U6">
@@ -1564,23 +4922,23 @@
         <v>1736</v>
       </c>
       <c r="Z6" s="1">
+        <f t="shared" si="9"/>
+        <v>1734</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="10"/>
-        <v>1734</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" si="11"/>
-        <v>13.2</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>224.20000000000005</v>
+      </c>
+      <c r="AC6" s="8">
         <f t="shared" si="12"/>
-        <v>224.20000000000005</v>
-      </c>
-      <c r="AC6" s="8">
+        <v>0.14849648960127174</v>
+      </c>
+      <c r="AD6" s="10">
         <f t="shared" si="13"/>
-        <v>0.14849648960127174</v>
-      </c>
-      <c r="AD6" s="10">
-        <f t="shared" si="14"/>
         <v>3.1845645364213429</v>
       </c>
       <c r="AE6">
@@ -1603,39 +4961,39 @@
         <v>1475</v>
       </c>
       <c r="AK6" s="1">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AL6" s="1">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="AL6" s="1">
+        <v>-34.799999999999955</v>
+      </c>
+      <c r="AM6" s="8">
         <f t="shared" si="16"/>
-        <v>-34.799999999999955</v>
-      </c>
-      <c r="AM6" s="8">
+        <v>-2.3049410517949367E-2</v>
+      </c>
+      <c r="AN6" s="10">
         <f t="shared" si="17"/>
-        <v>2.3049410517949367E-2</v>
-      </c>
-      <c r="AN6" s="10">
+        <v>3.279647038622227</v>
+      </c>
+      <c r="AT6" s="1" t="e">
         <f t="shared" si="18"/>
-        <v>3.279647038622227</v>
-      </c>
-      <c r="AT6" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU6" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU6" s="1" t="e">
+      <c r="AV6" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV6" s="1" t="e">
+      <c r="AW6" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW6" s="8" t="e">
+      <c r="AX6" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX6" s="10" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY6">
@@ -1654,14 +5012,14 @@
         <v>1586</v>
       </c>
       <c r="BD6" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1585.8</v>
       </c>
       <c r="BE6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BM6" s="1" t="e">
         <f t="shared" si="2"/>
@@ -1670,13 +5028,13 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3">
         <v>0.6</v>
@@ -1733,7 +5091,7 @@
         <v>1.7681818181818179</v>
       </c>
       <c r="T7" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.72264167140583369</v>
       </c>
       <c r="U7">
@@ -1752,23 +5110,23 @@
         <v>2.61</v>
       </c>
       <c r="Z7" s="1">
+        <f t="shared" si="9"/>
+        <v>1.9939999999999998</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="10"/>
-        <v>1.9939999999999998</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>0.40190400000000071</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" si="11"/>
-        <v>0.40190400000000071</v>
-      </c>
-      <c r="AB7" s="1">
+        <v>1.1139999999999997</v>
+      </c>
+      <c r="AC7" s="8">
         <f t="shared" si="12"/>
-        <v>1.1139999999999997</v>
-      </c>
-      <c r="AC7" s="8">
+        <v>1.2659090909090904</v>
+      </c>
+      <c r="AD7" s="10">
         <f t="shared" si="13"/>
-        <v>1.2659090909090904</v>
-      </c>
-      <c r="AD7" s="10">
-        <f t="shared" si="14"/>
         <v>0.55567934384359718</v>
       </c>
       <c r="AE7">
@@ -1791,39 +5149,39 @@
         <v>2.9039999999999999</v>
       </c>
       <c r="AK7" s="1">
+        <f t="shared" si="14"/>
+        <v>0.30922399999999928</v>
+      </c>
+      <c r="AL7" s="1">
         <f t="shared" si="15"/>
-        <v>0.30922399999999928</v>
-      </c>
-      <c r="AL7" s="1">
+        <v>2.024</v>
+      </c>
+      <c r="AM7" s="8">
         <f t="shared" si="16"/>
-        <v>2.024</v>
-      </c>
-      <c r="AM7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AN7" s="10">
         <f t="shared" si="17"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AN7" s="10">
+        <v>0.48741589271797786</v>
+      </c>
+      <c r="AT7" s="1" t="e">
         <f t="shared" si="18"/>
-        <v>0.48741589271797786</v>
-      </c>
-      <c r="AT7" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU7" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU7" s="1" t="e">
+      <c r="AV7" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV7" s="1" t="e">
+      <c r="AW7" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW7" s="8" t="e">
+      <c r="AX7" s="10" t="e">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX7" s="10" t="e">
-        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY7">
@@ -1842,14 +5200,14 @@
         <v>0.87</v>
       </c>
       <c r="BD7" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>1.754</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BM7" s="1" t="e">
         <f t="shared" si="2"/>
@@ -1858,13 +5216,13 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>42.1</v>
@@ -1921,7 +5279,7 @@
         <v>0.2614543726235744</v>
       </c>
       <c r="T8" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.75400097245321285</v>
       </c>
       <c r="U8">
@@ -1940,23 +5298,23 @@
         <v>49.86</v>
       </c>
       <c r="Z8" s="1">
+        <f t="shared" si="9"/>
+        <v>48.327999999999996</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="10"/>
-        <v>48.327999999999996</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>0.60269600000000056</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="11"/>
-        <v>0.60269600000000056</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>6.2479999999999976</v>
+      </c>
+      <c r="AC8" s="8">
         <f t="shared" si="12"/>
-        <v>6.2479999999999976</v>
-      </c>
-      <c r="AC8" s="8">
+        <v>0.14847908745247143</v>
+      </c>
+      <c r="AD8" s="10">
         <f t="shared" si="13"/>
-        <v>0.14847908745247143</v>
-      </c>
-      <c r="AD8" s="10">
-        <f t="shared" si="14"/>
         <v>0.68047510834667091</v>
       </c>
       <c r="AE8">
@@ -1979,19 +5337,19 @@
         <v>53.51400000000001</v>
       </c>
       <c r="AK8" s="1">
+        <f t="shared" si="14"/>
+        <v>0.60178400000000054</v>
+      </c>
+      <c r="AL8" s="1">
         <f t="shared" si="15"/>
-        <v>0.60178400000000054</v>
-      </c>
-      <c r="AL8" s="1">
+        <v>11.434000000000012</v>
+      </c>
+      <c r="AM8" s="8">
         <f t="shared" si="16"/>
-        <v>11.434000000000012</v>
-      </c>
-      <c r="AM8" s="8">
+        <v>0.27172053231939192</v>
+      </c>
+      <c r="AN8" s="10">
         <f t="shared" si="17"/>
-        <v>0.27172053231939192</v>
-      </c>
-      <c r="AN8" s="10">
-        <f t="shared" si="18"/>
         <v>0.67996006573218604</v>
       </c>
       <c r="AO8">
@@ -2014,23 +5372,23 @@
         <v>48.677999999999997</v>
       </c>
       <c r="AU8" s="1">
+        <f t="shared" si="19"/>
+        <v>0.92025599999999697</v>
+      </c>
+      <c r="AV8" s="1">
         <f t="shared" si="20"/>
-        <v>0.92025599999999697</v>
-      </c>
-      <c r="AV8" s="1">
+        <v>6.597999999999999</v>
+      </c>
+      <c r="AW8" s="8">
         <f t="shared" si="21"/>
-        <v>6.597999999999999</v>
-      </c>
-      <c r="AW8" s="8">
+        <v>0.15679657794676805</v>
+      </c>
+      <c r="AX8" s="10">
         <f t="shared" si="22"/>
-        <v>0.15679657794676805</v>
-      </c>
-      <c r="AX8" s="10">
+        <v>0.84084784931599599</v>
+      </c>
+      <c r="BD8" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.84084784931599599</v>
-      </c>
-      <c r="BD8" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BF8" s="1">
@@ -2061,13 +5419,13 @@
     </row>
     <row r="9" spans="1:65">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>44.7</v>
@@ -2124,7 +5482,7 @@
         <v>4.2819499341238215E-2</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.58236991368153912</v>
       </c>
       <c r="U9">
@@ -2143,23 +5501,23 @@
         <v>49.98</v>
       </c>
       <c r="Z9" s="1">
+        <f t="shared" si="9"/>
+        <v>51.308000000000007</v>
+      </c>
+      <c r="AA9" s="1">
         <f t="shared" si="10"/>
-        <v>51.308000000000007</v>
-      </c>
-      <c r="AA9" s="1">
+        <v>0.98813600000000168</v>
+      </c>
+      <c r="AB9" s="1">
         <f t="shared" si="11"/>
-        <v>0.98813600000000168</v>
-      </c>
-      <c r="AB9" s="1">
+        <v>5.7680000000000007</v>
+      </c>
+      <c r="AC9" s="8">
         <f t="shared" si="12"/>
-        <v>5.7680000000000007</v>
-      </c>
-      <c r="AC9" s="8">
+        <v>0.12665788317962232</v>
+      </c>
+      <c r="AD9" s="10">
         <f t="shared" si="13"/>
-        <v>0.12665788317962232</v>
-      </c>
-      <c r="AD9" s="10">
-        <f t="shared" si="14"/>
         <v>0.87130749488862014</v>
       </c>
       <c r="AJ9" s="1" t="e">
@@ -2167,19 +5525,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK9" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL9" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL9" s="1" t="e">
+      <c r="AM9" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM9" s="8" t="e">
+      <c r="AN9" s="10" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN9" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="3">
@@ -2198,27 +5556,27 @@
         <v>48.37</v>
       </c>
       <c r="AT9" s="1">
+        <f t="shared" si="18"/>
+        <v>47.957999999999998</v>
+      </c>
+      <c r="AU9" s="1">
         <f t="shared" si="19"/>
-        <v>47.957999999999998</v>
-      </c>
-      <c r="AU9" s="1">
+        <v>0.32573599999999925</v>
+      </c>
+      <c r="AV9" s="1">
         <f t="shared" si="20"/>
-        <v>0.32573599999999925</v>
-      </c>
-      <c r="AV9" s="1">
+        <v>2.4179999999999922</v>
+      </c>
+      <c r="AW9" s="8">
         <f t="shared" si="21"/>
-        <v>2.4179999999999922</v>
-      </c>
-      <c r="AW9" s="8">
+        <v>5.3096179183135528E-2</v>
+      </c>
+      <c r="AX9" s="10">
         <f t="shared" si="22"/>
-        <v>5.3096179183135528E-2</v>
-      </c>
-      <c r="AX9" s="10">
+        <v>0.50026021836992363</v>
+      </c>
+      <c r="BD9" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.50026021836992363</v>
-      </c>
-      <c r="BD9" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM9" s="1" t="e">
@@ -2228,13 +5586,13 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="3">
         <v>60.5</v>
@@ -2288,10 +5646,10 @@
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.10686567164179109</v>
+        <v>-0.10686567164179109</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.91705539856035745</v>
       </c>
       <c r="U10">
@@ -2310,23 +5668,23 @@
         <v>62.75</v>
       </c>
       <c r="Z10" s="1">
+        <f t="shared" si="9"/>
+        <v>60.342000000000006</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="10"/>
-        <v>60.342000000000006</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>4.0251360000000043</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" si="11"/>
-        <v>4.0251360000000043</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>4.2000000000008697E-2</v>
+      </c>
+      <c r="AC10" s="8">
         <f t="shared" si="12"/>
-        <v>4.2000000000008697E-2</v>
-      </c>
-      <c r="AC10" s="8">
+        <v>6.9651741293546763E-4</v>
+      </c>
+      <c r="AD10" s="10">
         <f t="shared" si="13"/>
-        <v>6.9651741293546763E-4</v>
-      </c>
-      <c r="AD10" s="10">
-        <f t="shared" si="14"/>
         <v>1.7585445227058358</v>
       </c>
       <c r="AE10">
@@ -2349,19 +5707,19 @@
         <v>59.215999999999994</v>
       </c>
       <c r="AK10" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3926239999999985</v>
+      </c>
+      <c r="AL10" s="1">
         <f t="shared" si="15"/>
-        <v>1.3926239999999985</v>
-      </c>
-      <c r="AL10" s="1">
+        <v>-1.0840000000000032</v>
+      </c>
+      <c r="AM10" s="8">
         <f t="shared" si="16"/>
-        <v>-1.0840000000000032</v>
-      </c>
-      <c r="AM10" s="8">
+        <v>-1.797678275290221E-2</v>
+      </c>
+      <c r="AN10" s="10">
         <f t="shared" si="17"/>
-        <v>1.797678275290221E-2</v>
-      </c>
-      <c r="AN10" s="10">
-        <f t="shared" si="18"/>
         <v>1.0343797898944398</v>
       </c>
       <c r="AO10" s="3">
@@ -2380,27 +5738,27 @@
         <v>53.1</v>
       </c>
       <c r="AT10" s="1">
+        <f t="shared" si="18"/>
+        <v>56.573999999999998</v>
+      </c>
+      <c r="AU10" s="1">
         <f t="shared" si="19"/>
-        <v>56.573999999999998</v>
-      </c>
-      <c r="AU10" s="1">
+        <v>5.2055039999999959</v>
+      </c>
+      <c r="AV10" s="1">
         <f t="shared" si="20"/>
-        <v>5.2055039999999959</v>
-      </c>
-      <c r="AV10" s="1">
+        <v>-3.7259999999999991</v>
+      </c>
+      <c r="AW10" s="8">
         <f t="shared" si="21"/>
-        <v>-3.7259999999999991</v>
-      </c>
-      <c r="AW10" s="8">
+        <v>-6.1791044776119394E-2</v>
+      </c>
+      <c r="AX10" s="10">
         <f t="shared" si="22"/>
-        <v>6.1791044776119394E-2</v>
-      </c>
-      <c r="AX10" s="10">
+        <v>1.9998364561612796</v>
+      </c>
+      <c r="BD10" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>1.9998364561612796</v>
-      </c>
-      <c r="BD10" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM10" s="1" t="e">
@@ -2410,13 +5768,13 @@
     </row>
     <row r="11" spans="1:65">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>60.5</v>
@@ -2470,10 +5828,10 @@
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>9.8208955223880554E-2</v>
+        <v>-9.8208955223880554E-2</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.34816375655539961</v>
       </c>
       <c r="U11" s="3">
@@ -2492,23 +5850,23 @@
         <v>56.67</v>
       </c>
       <c r="Z11" s="1">
+        <f t="shared" si="9"/>
+        <v>58.648000000000003</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="10"/>
-        <v>58.648000000000003</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>2.2448959999999971</v>
+      </c>
+      <c r="AB11" s="1">
         <f t="shared" si="11"/>
-        <v>2.2448959999999971</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>-1.6519999999999939</v>
+      </c>
+      <c r="AC11" s="8">
         <f t="shared" si="12"/>
-        <v>-1.6519999999999939</v>
-      </c>
-      <c r="AC11" s="8">
+        <v>-2.7396351575455953E-2</v>
+      </c>
+      <c r="AD11" s="10">
         <f t="shared" si="13"/>
-        <v>2.7396351575455953E-2</v>
-      </c>
-      <c r="AD11" s="10">
-        <f t="shared" si="14"/>
         <v>1.3132917071801635</v>
       </c>
       <c r="AE11" s="3">
@@ -2531,19 +5889,19 @@
         <v>50.375999999999998</v>
       </c>
       <c r="AK11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.57838399999999868</v>
+      </c>
+      <c r="AL11" s="1">
         <f t="shared" si="15"/>
-        <v>0.57838399999999868</v>
-      </c>
-      <c r="AL11" s="1">
+        <v>-9.9239999999999995</v>
+      </c>
+      <c r="AM11" s="8">
         <f t="shared" si="16"/>
-        <v>-9.9239999999999995</v>
-      </c>
-      <c r="AM11" s="8">
+        <v>-0.16457711442786069</v>
+      </c>
+      <c r="AN11" s="10">
         <f t="shared" si="17"/>
-        <v>0.16457711442786069</v>
-      </c>
-      <c r="AN11" s="10">
-        <f t="shared" si="18"/>
         <v>0.66660907862829832</v>
       </c>
       <c r="AO11" s="3">
@@ -2562,27 +5920,27 @@
         <v>52.98</v>
       </c>
       <c r="AT11" s="1">
+        <f t="shared" si="18"/>
+        <v>53.186</v>
+      </c>
+      <c r="AU11" s="1">
         <f t="shared" si="19"/>
-        <v>53.186</v>
-      </c>
-      <c r="AU11" s="1">
+        <v>0.58602400000000154</v>
+      </c>
+      <c r="AV11" s="1">
         <f t="shared" si="20"/>
-        <v>0.58602400000000154</v>
-      </c>
-      <c r="AV11" s="1">
+        <v>-7.1139999999999972</v>
+      </c>
+      <c r="AW11" s="8">
         <f t="shared" si="21"/>
-        <v>-7.1139999999999972</v>
-      </c>
-      <c r="AW11" s="8">
+        <v>-0.11797678275290212</v>
+      </c>
+      <c r="AX11" s="10">
         <f t="shared" si="22"/>
-        <v>0.11797678275290212</v>
-      </c>
-      <c r="AX11" s="10">
+        <v>0.67099732696016889</v>
+      </c>
+      <c r="BD11" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.67099732696016889</v>
-      </c>
-      <c r="BD11" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM11" s="1" t="e">
@@ -2592,13 +5950,13 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3">
         <v>59.5</v>
@@ -2655,7 +6013,7 @@
         <v>0.15812080536912751</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1.4184247304377466</v>
       </c>
       <c r="U12" s="3">
@@ -2674,23 +6032,23 @@
         <v>60.34</v>
       </c>
       <c r="Z12" s="1">
+        <f t="shared" si="9"/>
+        <v>59.536000000000001</v>
+      </c>
+      <c r="AA12" s="1">
         <f t="shared" si="10"/>
-        <v>59.536000000000001</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>2.8829439999999962</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="11"/>
-        <v>2.8829439999999962</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>-6.4000000000000057E-2</v>
+      </c>
+      <c r="AC12" s="8">
         <f t="shared" si="12"/>
-        <v>-6.4000000000000057E-2</v>
-      </c>
-      <c r="AC12" s="8">
+        <v>-1.0738255033557057E-3</v>
+      </c>
+      <c r="AD12" s="10">
         <f t="shared" si="13"/>
-        <v>1.0738255033557057E-3</v>
-      </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="14"/>
         <v>1.4882681652422176</v>
       </c>
       <c r="AE12" s="3">
@@ -2713,19 +6071,19 @@
         <v>70.116</v>
       </c>
       <c r="AK12" s="1">
+        <f t="shared" si="14"/>
+        <v>2.0119840000000009</v>
+      </c>
+      <c r="AL12" s="1">
         <f t="shared" si="15"/>
-        <v>2.0119840000000009</v>
-      </c>
-      <c r="AL12" s="1">
+        <v>10.515999999999998</v>
+      </c>
+      <c r="AM12" s="8">
         <f t="shared" si="16"/>
-        <v>10.515999999999998</v>
-      </c>
-      <c r="AM12" s="8">
+        <v>0.17644295302013419</v>
+      </c>
+      <c r="AN12" s="10">
         <f t="shared" si="17"/>
-        <v>0.17644295302013419</v>
-      </c>
-      <c r="AN12" s="10">
-        <f t="shared" si="18"/>
         <v>1.2432983297580231</v>
       </c>
       <c r="AO12" s="3">
@@ -2744,27 +6102,27 @@
         <v>63.23</v>
       </c>
       <c r="AT12" s="1">
+        <f t="shared" si="18"/>
+        <v>63.548000000000002</v>
+      </c>
+      <c r="AU12" s="1">
         <f t="shared" si="19"/>
-        <v>63.548000000000002</v>
-      </c>
-      <c r="AU12" s="1">
+        <v>0.62065599999999788</v>
+      </c>
+      <c r="AV12" s="1">
         <f t="shared" si="20"/>
-        <v>0.62065599999999788</v>
-      </c>
-      <c r="AV12" s="1">
+        <v>3.9480000000000004</v>
+      </c>
+      <c r="AW12" s="8">
         <f t="shared" si="21"/>
-        <v>3.9480000000000004</v>
-      </c>
-      <c r="AW12" s="8">
+        <v>6.6241610738255033E-2</v>
+      </c>
+      <c r="AX12" s="10">
         <f t="shared" si="22"/>
-        <v>6.6241610738255033E-2</v>
-      </c>
-      <c r="AX12" s="10">
+        <v>0.69053956668922645</v>
+      </c>
+      <c r="BD12" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.69053956668922645</v>
-      </c>
-      <c r="BD12" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM12" s="1" t="e">
@@ -2774,13 +6132,13 @@
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3">
         <v>162.69999999999999</v>
@@ -2837,7 +6195,7 @@
         <v>0.12675672356625337</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.3373186732783614</v>
       </c>
       <c r="U13" s="3">
@@ -2856,23 +6214,23 @@
         <v>169.42</v>
       </c>
       <c r="Z13" s="1">
+        <f t="shared" si="9"/>
+        <v>170.45400000000001</v>
+      </c>
+      <c r="AA13" s="1">
         <f t="shared" si="10"/>
-        <v>170.45400000000001</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>2.1429040000000228</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="11"/>
-        <v>2.1429040000000228</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>7.5940000000000225</v>
+      </c>
+      <c r="AC13" s="8">
         <f t="shared" si="12"/>
-        <v>7.5940000000000225</v>
-      </c>
-      <c r="AC13" s="8">
+        <v>4.6629006508657887E-2</v>
+      </c>
+      <c r="AD13" s="10">
         <f t="shared" si="13"/>
-        <v>4.6629006508657887E-2</v>
-      </c>
-      <c r="AD13" s="10">
-        <f t="shared" si="14"/>
         <v>1.2831116453918425</v>
       </c>
       <c r="AJ13" s="1" t="e">
@@ -2880,19 +6238,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK13" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL13" s="1" t="e">
+      <c r="AM13" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM13" s="8" t="e">
+      <c r="AN13" s="10" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN13" s="10" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AO13" s="3">
@@ -2911,27 +6269,27 @@
         <v>155.16999999999999</v>
       </c>
       <c r="AT13" s="1">
+        <f t="shared" si="18"/>
+        <v>157.07999999999998</v>
+      </c>
+      <c r="AU13" s="1">
         <f t="shared" si="19"/>
-        <v>157.07999999999998</v>
-      </c>
-      <c r="AU13" s="1">
+        <v>1.1680000000000113</v>
+      </c>
+      <c r="AV13" s="1">
         <f t="shared" si="20"/>
-        <v>1.1680000000000113</v>
-      </c>
-      <c r="AV13" s="1">
+        <v>-5.7800000000000011</v>
+      </c>
+      <c r="AW13" s="8">
         <f t="shared" si="21"/>
-        <v>-5.7800000000000011</v>
-      </c>
-      <c r="AW13" s="8">
+        <v>-3.5490605427974956E-2</v>
+      </c>
+      <c r="AX13" s="10">
         <f t="shared" si="22"/>
-        <v>3.5490605427974956E-2</v>
-      </c>
-      <c r="AX13" s="10">
+        <v>0.9472933972714872</v>
+      </c>
+      <c r="BD13" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.9472933972714872</v>
-      </c>
-      <c r="BD13" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM13" s="1" t="e">
@@ -2941,13 +6299,13 @@
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3">
         <v>19</v>
@@ -3004,7 +6362,7 @@
         <v>0.67815126050420171</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1.482193136779868</v>
       </c>
       <c r="U14" s="3">
@@ -3023,23 +6381,23 @@
         <v>20.57</v>
       </c>
       <c r="Z14" s="1">
+        <f t="shared" si="9"/>
+        <v>20.498000000000001</v>
+      </c>
+      <c r="AA14" s="1">
         <f t="shared" si="10"/>
-        <v>20.498000000000001</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>0.28805599999999998</v>
+      </c>
+      <c r="AB14" s="1">
         <f t="shared" si="11"/>
-        <v>0.28805599999999998</v>
-      </c>
-      <c r="AB14" s="1">
+        <v>1.458000000000002</v>
+      </c>
+      <c r="AC14" s="8">
         <f t="shared" si="12"/>
-        <v>1.458000000000002</v>
-      </c>
-      <c r="AC14" s="8">
+        <v>7.6575630252100943E-2</v>
+      </c>
+      <c r="AD14" s="10">
         <f t="shared" si="13"/>
-        <v>7.6575630252100943E-2</v>
-      </c>
-      <c r="AD14" s="10">
-        <f t="shared" si="14"/>
         <v>0.47043708655969424</v>
       </c>
       <c r="AE14" s="3">
@@ -3062,19 +6420,19 @@
         <v>30.824000000000002</v>
       </c>
       <c r="AK14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.43034400000000128</v>
+      </c>
+      <c r="AL14" s="1">
         <f t="shared" si="15"/>
-        <v>0.43034400000000128</v>
-      </c>
-      <c r="AL14" s="1">
+        <v>11.784000000000002</v>
+      </c>
+      <c r="AM14" s="8">
         <f t="shared" si="16"/>
-        <v>11.784000000000002</v>
-      </c>
-      <c r="AM14" s="8">
+        <v>0.61890756302521022</v>
+      </c>
+      <c r="AN14" s="10">
         <f t="shared" si="17"/>
-        <v>0.61890756302521022</v>
-      </c>
-      <c r="AN14" s="10">
-        <f t="shared" si="18"/>
         <v>0.57500413124303673</v>
       </c>
       <c r="AO14" s="3">
@@ -3093,27 +6451,27 @@
         <v>26.76</v>
       </c>
       <c r="AT14" s="1">
+        <f t="shared" si="18"/>
+        <v>26.749999999999993</v>
+      </c>
+      <c r="AU14" s="1">
         <f t="shared" si="19"/>
-        <v>26.749999999999993</v>
-      </c>
-      <c r="AU14" s="1">
+        <v>0.15360000000000007</v>
+      </c>
+      <c r="AV14" s="1">
         <f t="shared" si="20"/>
-        <v>0.15360000000000007</v>
-      </c>
-      <c r="AV14" s="1">
+        <v>7.7099999999999937</v>
+      </c>
+      <c r="AW14" s="8">
         <f t="shared" si="21"/>
-        <v>7.7099999999999937</v>
-      </c>
-      <c r="AW14" s="8">
+        <v>0.40493697478991564</v>
+      </c>
+      <c r="AX14" s="10">
         <f t="shared" si="22"/>
-        <v>0.40493697478991564</v>
-      </c>
-      <c r="AX14" s="10">
+        <v>0.34352527559369417</v>
+      </c>
+      <c r="BD14" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.34352527559369417</v>
-      </c>
-      <c r="BD14" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM14" s="1" t="e">
@@ -3123,13 +6481,13 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3">
         <v>9.9</v>
@@ -3186,7 +6544,7 @@
         <v>2.3762376237622903E-3</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.58309768518581184</v>
       </c>
       <c r="U15" s="3">
@@ -3205,23 +6563,23 @@
         <v>10.64</v>
       </c>
       <c r="Z15" s="1">
+        <f t="shared" si="9"/>
+        <v>12.204000000000001</v>
+      </c>
+      <c r="AA15" s="1">
         <f t="shared" si="10"/>
-        <v>12.204000000000001</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>1.3325039999999995</v>
+      </c>
+      <c r="AB15" s="1">
         <f t="shared" si="11"/>
-        <v>1.3325039999999995</v>
-      </c>
-      <c r="AB15" s="1">
+        <v>2.104000000000001</v>
+      </c>
+      <c r="AC15" s="8">
         <f t="shared" si="12"/>
-        <v>2.104000000000001</v>
-      </c>
-      <c r="AC15" s="8">
+        <v>0.20831683168316842</v>
+      </c>
+      <c r="AD15" s="10">
         <f t="shared" si="13"/>
-        <v>0.20831683168316842</v>
-      </c>
-      <c r="AD15" s="10">
-        <f t="shared" si="14"/>
         <v>1.0118062308970228</v>
       </c>
       <c r="AE15" s="3">
@@ -3244,19 +6602,19 @@
         <v>11.641999999999999</v>
       </c>
       <c r="AK15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.4882959999999999</v>
+      </c>
+      <c r="AL15" s="1">
         <f t="shared" si="15"/>
-        <v>0.4882959999999999</v>
-      </c>
-      <c r="AL15" s="1">
+        <v>1.5419999999999998</v>
+      </c>
+      <c r="AM15" s="8">
         <f t="shared" si="16"/>
-        <v>1.5419999999999998</v>
-      </c>
-      <c r="AM15" s="8">
+        <v>0.15267326732673267</v>
+      </c>
+      <c r="AN15" s="10">
         <f t="shared" si="17"/>
-        <v>0.15267326732673267</v>
-      </c>
-      <c r="AN15" s="10">
-        <f t="shared" si="18"/>
         <v>0.61249799612891087</v>
       </c>
       <c r="AO15" s="3">
@@ -3275,27 +6633,27 @@
         <v>11.73</v>
       </c>
       <c r="AT15" s="1">
+        <f t="shared" si="18"/>
+        <v>11.266</v>
+      </c>
+      <c r="AU15" s="1">
         <f t="shared" si="19"/>
-        <v>11.266</v>
-      </c>
-      <c r="AU15" s="1">
+        <v>1.5401840000000084</v>
+      </c>
+      <c r="AV15" s="1">
         <f t="shared" si="20"/>
-        <v>1.5401840000000084</v>
-      </c>
-      <c r="AV15" s="1">
+        <v>1.1660000000000004</v>
+      </c>
+      <c r="AW15" s="8">
         <f t="shared" si="21"/>
-        <v>1.1660000000000004</v>
-      </c>
-      <c r="AW15" s="8">
+        <v>0.11544554455445549</v>
+      </c>
+      <c r="AX15" s="10">
         <f t="shared" si="22"/>
-        <v>0.11544554455445549</v>
-      </c>
-      <c r="AX15" s="10">
+        <v>1.0878008468733593</v>
+      </c>
+      <c r="BD15" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>1.0878008468733593</v>
-      </c>
-      <c r="BD15" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM15" s="1" t="e">
@@ -3305,13 +6663,13 @@
     </row>
     <row r="16" spans="1:65">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3">
         <v>14.9</v>
@@ -3368,7 +6726,7 @@
         <v>4.3624161073825524E-2</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.86627747491218898</v>
       </c>
       <c r="U16" s="3">
@@ -3387,23 +6745,23 @@
         <v>16.239999999999998</v>
       </c>
       <c r="Z16" s="1">
+        <f t="shared" si="9"/>
+        <v>16.857999999999997</v>
+      </c>
+      <c r="AA16" s="1">
         <f t="shared" si="10"/>
-        <v>16.857999999999997</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>0.44553600000000149</v>
+      </c>
+      <c r="AB16" s="1">
         <f t="shared" si="11"/>
-        <v>0.44553600000000149</v>
-      </c>
-      <c r="AB16" s="1">
+        <v>1.9579999999999966</v>
+      </c>
+      <c r="AC16" s="8">
         <f t="shared" si="12"/>
-        <v>1.9579999999999966</v>
-      </c>
-      <c r="AC16" s="8">
+        <v>0.13140939597315413</v>
+      </c>
+      <c r="AD16" s="10">
         <f t="shared" si="13"/>
-        <v>0.13140939597315413</v>
-      </c>
-      <c r="AD16" s="10">
-        <f t="shared" si="14"/>
         <v>0.58506550011717195</v>
       </c>
       <c r="AE16" s="3">
@@ -3426,19 +6784,19 @@
         <v>17.404</v>
       </c>
       <c r="AK16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32514400000000043</v>
+      </c>
+      <c r="AL16" s="1">
         <f t="shared" si="15"/>
-        <v>0.32514400000000043</v>
-      </c>
-      <c r="AL16" s="1">
+        <v>2.5039999999999996</v>
+      </c>
+      <c r="AM16" s="8">
         <f t="shared" si="16"/>
-        <v>2.5039999999999996</v>
-      </c>
-      <c r="AM16" s="8">
+        <v>0.16805369127516775</v>
+      </c>
+      <c r="AN16" s="10">
         <f t="shared" si="17"/>
-        <v>0.16805369127516775</v>
-      </c>
-      <c r="AN16" s="10">
-        <f t="shared" si="18"/>
         <v>0.49980541949758239</v>
       </c>
       <c r="AO16" s="3">
@@ -3457,27 +6815,27 @@
         <v>16.86</v>
       </c>
       <c r="AT16" s="1">
+        <f t="shared" si="18"/>
+        <v>16.658000000000001</v>
+      </c>
+      <c r="AU16" s="1">
         <f t="shared" si="19"/>
-        <v>16.658000000000001</v>
-      </c>
-      <c r="AU16" s="1">
+        <v>1.0807759999999995</v>
+      </c>
+      <c r="AV16" s="1">
         <f t="shared" si="20"/>
-        <v>1.0807759999999995</v>
-      </c>
-      <c r="AV16" s="1">
+        <v>1.7580000000000009</v>
+      </c>
+      <c r="AW16" s="8">
         <f t="shared" si="21"/>
-        <v>1.7580000000000009</v>
-      </c>
-      <c r="AW16" s="8">
+        <v>0.11798657718120811</v>
+      </c>
+      <c r="AX16" s="10">
         <f t="shared" si="22"/>
-        <v>0.11798657718120811</v>
-      </c>
-      <c r="AX16" s="10">
+        <v>0.91123613826433703</v>
+      </c>
+      <c r="BD16" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.91123613826433703</v>
-      </c>
-      <c r="BD16" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG16">
@@ -3502,13 +6860,13 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3">
         <v>13.7</v>
@@ -3565,7 +6923,7 @@
         <v>0.11103047895500708</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.52491919215318084</v>
       </c>
       <c r="U17" s="3">
@@ -3584,23 +6942,23 @@
         <v>14.8</v>
       </c>
       <c r="Z17" s="1">
+        <f t="shared" si="9"/>
+        <v>15.263999999999999</v>
+      </c>
+      <c r="AA17" s="1">
         <f t="shared" si="10"/>
-        <v>15.263999999999999</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>0.71766399999999941</v>
+      </c>
+      <c r="AB17" s="1">
         <f t="shared" si="11"/>
-        <v>0.71766399999999941</v>
-      </c>
-      <c r="AB17" s="1">
+        <v>1.4839999999999982</v>
+      </c>
+      <c r="AC17" s="8">
         <f t="shared" si="12"/>
-        <v>1.4839999999999982</v>
-      </c>
-      <c r="AC17" s="8">
+        <v>0.10769230769230756</v>
+      </c>
+      <c r="AD17" s="10">
         <f t="shared" si="13"/>
-        <v>0.10769230769230756</v>
-      </c>
-      <c r="AD17" s="10">
-        <f t="shared" si="14"/>
         <v>0.74254652421173251</v>
       </c>
       <c r="AE17" s="3">
@@ -3623,19 +6981,19 @@
         <v>14.457999999999998</v>
       </c>
       <c r="AK17" s="1">
+        <f t="shared" si="14"/>
+        <v>2.3255360000000653</v>
+      </c>
+      <c r="AL17" s="1">
         <f t="shared" si="15"/>
-        <v>2.3255360000000653</v>
-      </c>
-      <c r="AL17" s="1">
+        <v>0.67799999999999727</v>
+      </c>
+      <c r="AM17" s="8">
         <f t="shared" si="16"/>
-        <v>0.67799999999999727</v>
-      </c>
-      <c r="AM17" s="8">
+        <v>4.920174165457164E-2</v>
+      </c>
+      <c r="AN17" s="10">
         <f t="shared" si="17"/>
-        <v>4.920174165457164E-2</v>
-      </c>
-      <c r="AN17" s="10">
-        <f t="shared" si="18"/>
         <v>1.3366712969194765</v>
       </c>
       <c r="AO17" s="3">
@@ -3654,27 +7012,27 @@
         <v>13.01</v>
       </c>
       <c r="AT17" s="1">
+        <f t="shared" si="18"/>
+        <v>14.05</v>
+      </c>
+      <c r="AU17" s="1">
         <f t="shared" si="19"/>
-        <v>14.05</v>
-      </c>
-      <c r="AU17" s="1">
+        <v>0.7864000000000001</v>
+      </c>
+      <c r="AV17" s="1">
         <f t="shared" si="20"/>
-        <v>0.7864000000000001</v>
-      </c>
-      <c r="AV17" s="1">
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="AW17" s="8">
         <f t="shared" si="21"/>
-        <v>0.26999999999999957</v>
-      </c>
-      <c r="AW17" s="8">
+        <v>1.9593613933236543E-2</v>
+      </c>
+      <c r="AX17" s="10">
         <f t="shared" si="22"/>
-        <v>1.9593613933236543E-2</v>
-      </c>
-      <c r="AX17" s="10">
+        <v>0.77729315146781774</v>
+      </c>
+      <c r="BD17" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.77729315146781774</v>
-      </c>
-      <c r="BD17" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG17">
@@ -3699,13 +7057,13 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D18" s="3">
         <v>4.9000000000000004</v>
@@ -3762,7 +7120,7 @@
         <v>2.6341563786008231</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>1.2811197800721643</v>
       </c>
       <c r="U18" s="3">
@@ -3781,23 +7139,23 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="Z18" s="1">
+        <f t="shared" si="9"/>
+        <v>6.306</v>
+      </c>
+      <c r="AA18" s="1">
         <f t="shared" si="10"/>
-        <v>6.306</v>
-      </c>
-      <c r="AA18" s="1">
+        <v>1.8868239999999878</v>
+      </c>
+      <c r="AB18" s="1">
         <f t="shared" si="11"/>
-        <v>1.8868239999999878</v>
-      </c>
-      <c r="AB18" s="1">
+        <v>1.4460000000000006</v>
+      </c>
+      <c r="AC18" s="8">
         <f t="shared" si="12"/>
-        <v>1.4460000000000006</v>
-      </c>
-      <c r="AC18" s="8">
+        <v>0.29753086419753105</v>
+      </c>
+      <c r="AD18" s="10">
         <f t="shared" si="13"/>
-        <v>0.29753086419753105</v>
-      </c>
-      <c r="AD18" s="10">
-        <f t="shared" si="14"/>
         <v>1.2040063702404005</v>
       </c>
       <c r="AE18" s="3">
@@ -3820,19 +7178,19 @@
         <v>18.527999999999999</v>
       </c>
       <c r="AK18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.70293600000000145</v>
+      </c>
+      <c r="AL18" s="1">
         <f t="shared" si="15"/>
-        <v>0.70293600000000145</v>
-      </c>
-      <c r="AL18" s="1">
+        <v>13.667999999999999</v>
+      </c>
+      <c r="AM18" s="8">
         <f t="shared" si="16"/>
-        <v>13.667999999999999</v>
-      </c>
-      <c r="AM18" s="8">
+        <v>2.812345679012346</v>
+      </c>
+      <c r="AN18" s="10">
         <f t="shared" si="17"/>
-        <v>2.812345679012346</v>
-      </c>
-      <c r="AN18" s="10">
-        <f t="shared" si="18"/>
         <v>0.73488770537864478</v>
       </c>
       <c r="AO18" s="3">
@@ -3851,27 +7209,27 @@
         <v>6.86</v>
       </c>
       <c r="AT18" s="1">
+        <f t="shared" si="18"/>
+        <v>6.6179999999999994</v>
+      </c>
+      <c r="AU18" s="1">
         <f t="shared" si="19"/>
-        <v>6.6179999999999994</v>
-      </c>
-      <c r="AU18" s="1">
+        <v>1.8348959999999988</v>
+      </c>
+      <c r="AV18" s="1">
         <f t="shared" si="20"/>
-        <v>1.8348959999999988</v>
-      </c>
-      <c r="AV18" s="1">
+        <v>1.758</v>
+      </c>
+      <c r="AW18" s="8">
         <f t="shared" si="21"/>
-        <v>1.758</v>
-      </c>
-      <c r="AW18" s="8">
+        <v>0.36172839506172844</v>
+      </c>
+      <c r="AX18" s="10">
         <f t="shared" si="22"/>
-        <v>0.36172839506172844</v>
-      </c>
-      <c r="AX18" s="10">
+        <v>1.1873228225092245</v>
+      </c>
+      <c r="BD18" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>1.1873228225092245</v>
-      </c>
-      <c r="BD18" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM18" s="1" t="e">
@@ -3881,13 +7239,13 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -3944,7 +7302,7 @@
         <v>0.2779999999999998</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.84836153003475578</v>
       </c>
       <c r="U19" s="3">
@@ -3963,23 +7321,23 @@
         <v>3.75</v>
       </c>
       <c r="Z19" s="1">
+        <f t="shared" si="9"/>
+        <v>4.766</v>
+      </c>
+      <c r="AA19" s="1">
         <f t="shared" si="10"/>
-        <v>4.766</v>
-      </c>
-      <c r="AA19" s="1">
+        <v>0.98230400000000373</v>
+      </c>
+      <c r="AB19" s="1">
         <f t="shared" si="11"/>
-        <v>0.98230400000000373</v>
-      </c>
-      <c r="AB19" s="1">
+        <v>3.766</v>
+      </c>
+      <c r="AC19" s="8">
         <f t="shared" si="12"/>
         <v>3.766</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AD19" s="10">
         <f t="shared" si="13"/>
-        <v>3.766</v>
-      </c>
-      <c r="AD19" s="10">
-        <f t="shared" si="14"/>
         <v>0.86873245195550663</v>
       </c>
       <c r="AE19" s="3">
@@ -4002,19 +7360,19 @@
         <v>1.9760000000000002</v>
       </c>
       <c r="AK19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.76466399999999912</v>
+      </c>
+      <c r="AL19" s="1">
         <f t="shared" si="15"/>
-        <v>0.76466399999999912</v>
-      </c>
-      <c r="AL19" s="1">
+        <v>0.9760000000000002</v>
+      </c>
+      <c r="AM19" s="8">
         <f t="shared" si="16"/>
         <v>0.9760000000000002</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AN19" s="10">
         <f t="shared" si="17"/>
-        <v>0.9760000000000002</v>
-      </c>
-      <c r="AN19" s="10">
-        <f t="shared" si="18"/>
         <v>0.76647573577605799</v>
       </c>
       <c r="AO19" s="3">
@@ -4033,27 +7391,27 @@
         <v>2.58</v>
       </c>
       <c r="AT19" s="1">
+        <f t="shared" si="18"/>
+        <v>1.986</v>
+      </c>
+      <c r="AU19" s="1">
         <f t="shared" si="19"/>
-        <v>1.986</v>
-      </c>
-      <c r="AU19" s="1">
+        <v>0.6560240000000005</v>
+      </c>
+      <c r="AV19" s="1">
         <f t="shared" si="20"/>
-        <v>0.6560240000000005</v>
-      </c>
-      <c r="AV19" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AW19" s="8">
         <f t="shared" si="21"/>
         <v>0.98599999999999999</v>
       </c>
-      <c r="AW19" s="8">
+      <c r="AX19" s="10">
         <f t="shared" si="22"/>
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="AX19" s="10">
+        <v>0.70994213586559896</v>
+      </c>
+      <c r="BD19" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.70994213586559896</v>
-      </c>
-      <c r="BD19" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM19" s="1" t="e">
@@ -4063,13 +7421,13 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3">
         <v>26.7</v>
@@ -4123,10 +7481,10 @@
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.15407854984894243</v>
+        <v>-0.15407854984894243</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.70560881147596499</v>
       </c>
       <c r="U20" s="3">
@@ -4145,23 +7503,23 @@
         <v>27.32</v>
       </c>
       <c r="Z20" s="1">
+        <f t="shared" si="9"/>
+        <v>27.064</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="10"/>
-        <v>27.064</v>
-      </c>
-      <c r="AA20" s="1">
+        <v>0.46318400000000065</v>
+      </c>
+      <c r="AB20" s="1">
         <f t="shared" si="11"/>
-        <v>0.46318400000000065</v>
-      </c>
-      <c r="AB20" s="1">
+        <v>0.58400000000000318</v>
+      </c>
+      <c r="AC20" s="8">
         <f t="shared" si="12"/>
-        <v>0.58400000000000318</v>
-      </c>
-      <c r="AC20" s="8">
+        <v>2.2054380664652692E-2</v>
+      </c>
+      <c r="AD20" s="10">
         <f t="shared" si="13"/>
-        <v>2.2054380664652692E-2</v>
-      </c>
-      <c r="AD20" s="10">
-        <f t="shared" si="14"/>
         <v>0.59654040305823186</v>
       </c>
       <c r="AE20" s="3">
@@ -4184,19 +7542,19 @@
         <v>24.905999999999999</v>
       </c>
       <c r="AK20" s="1">
+        <f t="shared" si="14"/>
+        <v>0.71602400000000033</v>
+      </c>
+      <c r="AL20" s="1">
         <f t="shared" si="15"/>
-        <v>0.71602400000000033</v>
-      </c>
-      <c r="AL20" s="1">
+        <v>-1.5739999999999981</v>
+      </c>
+      <c r="AM20" s="8">
         <f t="shared" si="16"/>
-        <v>-1.5739999999999981</v>
-      </c>
-      <c r="AM20" s="8">
+        <v>-5.9441087613292982E-2</v>
+      </c>
+      <c r="AN20" s="10">
         <f t="shared" si="17"/>
-        <v>5.9441087613292982E-2</v>
-      </c>
-      <c r="AN20" s="10">
-        <f t="shared" si="18"/>
         <v>0.74169760827829156</v>
       </c>
       <c r="AO20" s="3">
@@ -4215,27 +7573,27 @@
         <v>24.2</v>
       </c>
       <c r="AT20" s="1">
+        <f t="shared" si="18"/>
+        <v>23.97</v>
+      </c>
+      <c r="AU20" s="1">
         <f t="shared" si="19"/>
-        <v>23.97</v>
-      </c>
-      <c r="AU20" s="1">
+        <v>0.62403999999999882</v>
+      </c>
+      <c r="AV20" s="1">
         <f t="shared" si="20"/>
-        <v>0.62403999999999882</v>
-      </c>
-      <c r="AV20" s="1">
+        <v>-2.509999999999998</v>
+      </c>
+      <c r="AW20" s="8">
         <f t="shared" si="21"/>
-        <v>-2.509999999999998</v>
-      </c>
-      <c r="AW20" s="8">
+        <v>-9.4788519637462168E-2</v>
+      </c>
+      <c r="AX20" s="10">
         <f t="shared" si="22"/>
-        <v>9.4788519637462168E-2</v>
-      </c>
-      <c r="AX20" s="10">
+        <v>0.69241952058935419</v>
+      </c>
+      <c r="BD20" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.69241952058935419</v>
-      </c>
-      <c r="BD20" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM20" s="1" t="e">
@@ -4245,13 +7603,13 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3">
         <v>80.5</v>
@@ -4305,10 +7663,10 @@
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>9.5619711299153781E-2</v>
+        <v>-9.5619711299153781E-2</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0.57028148920250077</v>
       </c>
       <c r="U21" s="3">
@@ -4327,23 +7685,23 @@
         <v>78.62</v>
       </c>
       <c r="Z21" s="1">
+        <f t="shared" si="9"/>
+        <v>78.364000000000004</v>
+      </c>
+      <c r="AA21" s="1">
         <f t="shared" si="10"/>
-        <v>78.364000000000004</v>
-      </c>
-      <c r="AA21" s="1">
+        <v>0.24546400000000004</v>
+      </c>
+      <c r="AB21" s="1">
         <f t="shared" si="11"/>
-        <v>0.24546400000000004</v>
-      </c>
-      <c r="AB21" s="1">
+        <v>-1.9959999999999951</v>
+      </c>
+      <c r="AC21" s="8">
         <f t="shared" si="12"/>
-        <v>-1.9959999999999951</v>
-      </c>
-      <c r="AC21" s="8">
+        <v>-2.4838227974116417E-2</v>
+      </c>
+      <c r="AD21" s="10">
         <f t="shared" si="13"/>
-        <v>2.4838227974116417E-2</v>
-      </c>
-      <c r="AD21" s="10">
-        <f t="shared" si="14"/>
         <v>0.43426716384337938</v>
       </c>
       <c r="AE21" s="3">
@@ -4366,19 +7724,19 @@
         <v>86.155999999999992</v>
       </c>
       <c r="AK21" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11998400000000053</v>
+      </c>
+      <c r="AL21" s="1">
         <f t="shared" si="15"/>
-        <v>0.11998400000000053</v>
-      </c>
-      <c r="AL21" s="1">
+        <v>5.7959999999999923</v>
+      </c>
+      <c r="AM21" s="8">
         <f t="shared" si="16"/>
-        <v>5.7959999999999923</v>
-      </c>
-      <c r="AM21" s="8">
+        <v>7.2125435540069588E-2</v>
+      </c>
+      <c r="AN21" s="10">
         <f t="shared" si="17"/>
-        <v>7.2125435540069588E-2</v>
-      </c>
-      <c r="AN21" s="10">
-        <f t="shared" si="18"/>
         <v>0.30361607175581656</v>
       </c>
       <c r="AO21" s="3">
@@ -4397,27 +7755,27 @@
         <v>69.989999999999995</v>
       </c>
       <c r="AT21" s="1">
+        <f t="shared" si="18"/>
+        <v>70.524000000000001</v>
+      </c>
+      <c r="AU21" s="1">
         <f t="shared" si="19"/>
-        <v>70.524000000000001</v>
-      </c>
-      <c r="AU21" s="1">
+        <v>0.59594400000000136</v>
+      </c>
+      <c r="AV21" s="1">
         <f t="shared" si="20"/>
-        <v>0.59594400000000136</v>
-      </c>
-      <c r="AV21" s="1">
+        <v>-9.8359999999999985</v>
+      </c>
+      <c r="AW21" s="8">
         <f t="shared" si="21"/>
-        <v>-9.8359999999999985</v>
-      </c>
-      <c r="AW21" s="8">
+        <v>-0.12239920358387256</v>
+      </c>
+      <c r="AX21" s="10">
         <f t="shared" si="22"/>
-        <v>0.12239920358387256</v>
-      </c>
-      <c r="AX21" s="10">
+        <v>0.67665269310625575</v>
+      </c>
+      <c r="BD21" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>0.67665269310625575</v>
-      </c>
-      <c r="BD21" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BG21" s="3">
@@ -4466,27 +7824,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T22" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z22" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z22" s="1" t="e">
+      <c r="AA22" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA22" s="1" t="e">
+      <c r="AB22" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB22" s="1" t="e">
+      <c r="AC22" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC22" s="8" t="e">
+      <c r="AD22" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD22" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ22" s="1" t="e">
@@ -4494,43 +7852,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK22" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL22" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="1" t="e">
+      <c r="AM22" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM22" s="8" t="e">
+      <c r="AN22" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN22" s="10" t="e">
+      <c r="AT22" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT22" s="1" t="e">
+      <c r="AU22" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU22" s="1" t="e">
+      <c r="AV22" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV22" s="1" t="e">
+      <c r="AW22" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW22" s="8" t="e">
+      <c r="AX22" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX22" s="10" t="e">
+      <c r="BD22" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD22" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM22" s="1" t="e">
@@ -4564,27 +7922,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T23" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z23" s="1" t="e">
+      <c r="AA23" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA23" s="1" t="e">
+      <c r="AB23" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="1" t="e">
+      <c r="AC23" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC23" s="8" t="e">
+      <c r="AD23" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD23" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ23" s="1" t="e">
@@ -4592,43 +7950,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK23" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL23" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL23" s="1" t="e">
+      <c r="AM23" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM23" s="8" t="e">
+      <c r="AN23" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN23" s="10" t="e">
+      <c r="AT23" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT23" s="1" t="e">
+      <c r="AU23" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU23" s="1" t="e">
+      <c r="AV23" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV23" s="1" t="e">
+      <c r="AW23" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW23" s="8" t="e">
+      <c r="AX23" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX23" s="10" t="e">
+      <c r="BD23" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD23" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM23" s="1" t="e">
@@ -4662,27 +8020,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T24" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z24" s="1" t="e">
+      <c r="AA24" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA24" s="1" t="e">
+      <c r="AB24" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB24" s="1" t="e">
+      <c r="AC24" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC24" s="8" t="e">
+      <c r="AD24" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD24" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ24" s="1" t="e">
@@ -4690,43 +8048,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK24" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL24" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL24" s="1" t="e">
+      <c r="AM24" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM24" s="8" t="e">
+      <c r="AN24" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN24" s="10" t="e">
+      <c r="AT24" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT24" s="1" t="e">
+      <c r="AU24" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU24" s="1" t="e">
+      <c r="AV24" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV24" s="1" t="e">
+      <c r="AW24" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW24" s="8" t="e">
+      <c r="AX24" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX24" s="10" t="e">
+      <c r="BD24" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD24" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM24" s="1" t="e">
@@ -4760,27 +8118,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T25" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z25" s="1" t="e">
+      <c r="AA25" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA25" s="1" t="e">
+      <c r="AB25" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB25" s="1" t="e">
+      <c r="AC25" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC25" s="8" t="e">
+      <c r="AD25" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD25" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ25" s="1" t="e">
@@ -4788,43 +8146,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK25" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL25" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL25" s="1" t="e">
+      <c r="AM25" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM25" s="8" t="e">
+      <c r="AN25" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN25" s="10" t="e">
+      <c r="AT25" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT25" s="1" t="e">
+      <c r="AU25" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU25" s="1" t="e">
+      <c r="AV25" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV25" s="1" t="e">
+      <c r="AW25" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW25" s="8" t="e">
+      <c r="AX25" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX25" s="10" t="e">
+      <c r="BD25" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD25" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM25" s="1" t="e">
@@ -4858,27 +8216,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T26" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z26" s="1" t="e">
+      <c r="AA26" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA26" s="1" t="e">
+      <c r="AB26" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="1" t="e">
+      <c r="AC26" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="8" t="e">
+      <c r="AD26" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD26" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ26" s="1" t="e">
@@ -4886,43 +8244,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK26" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL26" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL26" s="1" t="e">
+      <c r="AM26" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM26" s="8" t="e">
+      <c r="AN26" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN26" s="10" t="e">
+      <c r="AT26" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT26" s="1" t="e">
+      <c r="AU26" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU26" s="1" t="e">
+      <c r="AV26" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV26" s="1" t="e">
+      <c r="AW26" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW26" s="8" t="e">
+      <c r="AX26" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX26" s="10" t="e">
+      <c r="BD26" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD26" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM26" s="1" t="e">
@@ -4956,27 +8314,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T27" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z27" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z27" s="1" t="e">
+      <c r="AA27" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA27" s="1" t="e">
+      <c r="AB27" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB27" s="1" t="e">
+      <c r="AC27" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC27" s="8" t="e">
+      <c r="AD27" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD27" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ27" s="1" t="e">
@@ -4984,43 +8342,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK27" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL27" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL27" s="1" t="e">
+      <c r="AM27" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM27" s="8" t="e">
+      <c r="AN27" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN27" s="10" t="e">
+      <c r="AT27" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT27" s="1" t="e">
+      <c r="AU27" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU27" s="1" t="e">
+      <c r="AV27" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV27" s="1" t="e">
+      <c r="AW27" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW27" s="8" t="e">
+      <c r="AX27" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX27" s="10" t="e">
+      <c r="BD27" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD27" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM27" s="1" t="e">
@@ -5054,27 +8412,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T28" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z28" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z28" s="1" t="e">
+      <c r="AA28" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA28" s="1" t="e">
+      <c r="AB28" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB28" s="1" t="e">
+      <c r="AC28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC28" s="8" t="e">
+      <c r="AD28" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD28" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ28" s="1" t="e">
@@ -5082,43 +8440,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK28" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL28" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL28" s="1" t="e">
+      <c r="AM28" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM28" s="8" t="e">
+      <c r="AN28" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN28" s="10" t="e">
+      <c r="AT28" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT28" s="1" t="e">
+      <c r="AU28" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU28" s="1" t="e">
+      <c r="AV28" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV28" s="1" t="e">
+      <c r="AW28" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW28" s="8" t="e">
+      <c r="AX28" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX28" s="10" t="e">
+      <c r="BD28" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD28" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM28" s="1" t="e">
@@ -5152,27 +8510,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T29" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z29" s="1" t="e">
+      <c r="AA29" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA29" s="1" t="e">
+      <c r="AB29" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB29" s="1" t="e">
+      <c r="AC29" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC29" s="8" t="e">
+      <c r="AD29" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ29" s="1" t="e">
@@ -5180,43 +8538,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK29" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL29" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL29" s="1" t="e">
+      <c r="AM29" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM29" s="8" t="e">
+      <c r="AN29" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN29" s="10" t="e">
+      <c r="AT29" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT29" s="1" t="e">
+      <c r="AU29" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU29" s="1" t="e">
+      <c r="AV29" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV29" s="1" t="e">
+      <c r="AW29" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW29" s="8" t="e">
+      <c r="AX29" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX29" s="10" t="e">
+      <c r="BD29" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD29" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM29" s="1" t="e">
@@ -5250,27 +8608,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T30" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z30" s="1" t="e">
+      <c r="AA30" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="1" t="e">
+      <c r="AB30" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB30" s="1" t="e">
+      <c r="AC30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC30" s="8" t="e">
+      <c r="AD30" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD30" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ30" s="1" t="e">
@@ -5278,43 +8636,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK30" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL30" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL30" s="1" t="e">
+      <c r="AM30" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM30" s="8" t="e">
+      <c r="AN30" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN30" s="10" t="e">
+      <c r="AT30" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT30" s="1" t="e">
+      <c r="AU30" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU30" s="1" t="e">
+      <c r="AV30" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV30" s="1" t="e">
+      <c r="AW30" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW30" s="8" t="e">
+      <c r="AX30" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX30" s="10" t="e">
+      <c r="BD30" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD30" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM30" s="1" t="e">
@@ -5348,27 +8706,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="10" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z31" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z31" s="1" t="e">
+      <c r="AA31" s="1" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="1" t="e">
+      <c r="AB31" s="1" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB31" s="1" t="e">
+      <c r="AC31" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC31" s="8" t="e">
+      <c r="AD31" s="10" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD31" s="10" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ31" s="1" t="e">
@@ -5376,48 +8734,93 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK31" s="1" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL31" s="1" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL31" s="1" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AM31" s="8" t="e">
+        <f>AL31/I31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN31" s="10" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN31" s="10" t="e">
+      <c r="AT31" s="1" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AT31" s="1" t="e">
+      <c r="AU31" s="1" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU31" s="1" t="e">
+      <c r="AV31" s="1" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AV31" s="1" t="e">
+      <c r="AW31" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AW31" s="8" t="e">
+      <c r="AX31" s="10" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AX31" s="10" t="e">
+      <c r="BD31" s="1" t="e">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD31" s="1" t="e">
-        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM31" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="4:63">
+      <c r="S35" s="8">
+        <f>AVERAGE(S5:S21,S3)</f>
+        <v>0.313432520456012</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8">
+        <f t="shared" ref="T35:AW35" si="25">AVERAGE(AC5:AC21,AC3)</f>
+        <v>0.33658444677092941</v>
+      </c>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8">
+        <f>AVERAGE(AM14:AM21,AM12,AM11,AM10,AM8,AM7,AM6,AM5)</f>
+        <v>0.48293726428656086</v>
+      </c>
+      <c r="AN35" s="8"/>
+      <c r="AO35" s="8"/>
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="8"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="8"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="8"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8">
+        <f>AVERAGE(AW8:AW21)</f>
+        <v>0.13209852265788366</v>
       </c>
     </row>
     <row r="37" spans="4:63">
@@ -5477,6 +8880,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
